--- a/SESServiceItemFamily.xlsx
+++ b/SESServiceItemFamily.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C169977-84D2-496E-B732-8F864FEAB83A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836B5078-CBA6-47CD-940C-1A99C0E4612E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -313,13 +313,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K26" totalsRowShown="0">
-  <autoFilter ref="A1:K26" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Step 1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -624,7 +618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I24"/>
     </sheetView>
   </sheetViews>
@@ -704,7 +698,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>18</v>
       </c>
@@ -718,7 +712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>22</v>
       </c>
@@ -732,7 +726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>26</v>
       </c>
@@ -746,7 +740,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>30</v>
       </c>
@@ -760,7 +754,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>34</v>
       </c>
@@ -774,7 +768,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>38</v>
       </c>
@@ -788,7 +782,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>42</v>
       </c>
@@ -802,7 +796,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>46</v>
       </c>
@@ -816,7 +810,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>50</v>
       </c>
@@ -853,7 +847,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>19</v>
       </c>
@@ -890,7 +884,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>18</v>
       </c>
@@ -904,7 +898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>22</v>
       </c>
@@ -918,7 +912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>26</v>
       </c>
@@ -932,7 +926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>30</v>
       </c>
@@ -946,7 +940,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>34</v>
       </c>
@@ -960,7 +954,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>38</v>
       </c>
@@ -974,7 +968,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>42</v>
       </c>
@@ -988,7 +982,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>46</v>
       </c>
@@ -1002,7 +996,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>50</v>
       </c>
@@ -1039,7 +1033,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>19</v>
       </c>
@@ -1050,7 +1044,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>23</v>
       </c>
